--- a/data/trans_dic/P2A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,22; 49,87</t>
+          <t>40,48; 49,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,28; 56,13</t>
+          <t>46,48; 56,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,86; 50,87</t>
+          <t>41,38; 51,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,63; 42,34</t>
+          <t>33,65; 42,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,04; 57,05</t>
+          <t>45,99; 57,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,0; 59,18</t>
+          <t>47,46; 59,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,09; 57,78</t>
+          <t>47,2; 58,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,61; 43,54</t>
+          <t>35,07; 43,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,45; 51,21</t>
+          <t>43,9; 51,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,15; 55,89</t>
+          <t>47,64; 55,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,91; 52,26</t>
+          <t>45,16; 52,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,87; 41,65</t>
+          <t>35,66; 41,43</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,15; 52,69</t>
+          <t>41,97; 52,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,31; 58,93</t>
+          <t>47,61; 58,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,56; 55,19</t>
+          <t>44,41; 54,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,66; 39,78</t>
+          <t>30,25; 39,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,66; 60,21</t>
+          <t>50,13; 60,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,04; 67,88</t>
+          <t>56,95; 68,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,19; 56,25</t>
+          <t>45,86; 56,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,08; 40,21</t>
+          <t>32,4; 40,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,77; 55,29</t>
+          <t>47,82; 55,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,89; 61,68</t>
+          <t>53,49; 61,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,44; 54,02</t>
+          <t>46,57; 53,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,78; 38,92</t>
+          <t>32,78; 38,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,23; 53,19</t>
+          <t>44,36; 52,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,57; 62,84</t>
+          <t>54,61; 62,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,19; 62,89</t>
+          <t>54,23; 63,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 42,05</t>
+          <t>9,22; 41,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,68; 69,59</t>
+          <t>54,39; 68,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,81; 76,64</t>
+          <t>65,05; 76,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,69; 73,34</t>
+          <t>58,65; 73,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,9; 57,25</t>
+          <t>44,51; 57,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,06; 55,4</t>
+          <t>47,91; 55,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>59,0; 65,58</t>
+          <t>59,1; 65,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>56,93; 64,42</t>
+          <t>56,69; 64,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,62; 44,65</t>
+          <t>12,77; 44,57</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,23; 55,71</t>
+          <t>50,18; 55,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,76; 61,9</t>
+          <t>55,7; 61,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,21; 57,93</t>
+          <t>51,87; 57,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,74; 47,4</t>
+          <t>40,64; 47,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,91; 65,97</t>
+          <t>58,34; 65,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,55; 68,84</t>
+          <t>61,71; 68,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,1; 59,92</t>
+          <t>53,12; 59,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,87; 76,15</t>
+          <t>41,84; 76,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,96; 58,57</t>
+          <t>54,35; 58,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,06; 63,53</t>
+          <t>58,84; 63,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53,34; 57,8</t>
+          <t>53,12; 57,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>42,96; 65,53</t>
+          <t>42,8; 63,16</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,69; 58,26</t>
+          <t>47,64; 58,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,67; 63,1</t>
+          <t>54,4; 63,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,69; 60,41</t>
+          <t>52,76; 60,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,96; 53,51</t>
+          <t>44,49; 54,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>61,55; 69,66</t>
+          <t>61,28; 69,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,45; 77,99</t>
+          <t>71,73; 78,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,32; 76,61</t>
+          <t>70,28; 76,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,89; 54,72</t>
+          <t>34,52; 54,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>57,36; 63,87</t>
+          <t>57,1; 63,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>65,81; 71,29</t>
+          <t>65,63; 71,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62,93; 68,31</t>
+          <t>62,95; 68,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,73; 52,6</t>
+          <t>40,14; 52,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 32,54</t>
+          <t>22,34; 32,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,99; 44,73</t>
+          <t>32,65; 44,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,22; 40,35</t>
+          <t>29,97; 40,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,86; 37,55</t>
+          <t>17,92; 37,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,24; 72,32</t>
+          <t>67,41; 72,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,08; 76,43</t>
+          <t>70,81; 76,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,08; 72,48</t>
+          <t>66,89; 72,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,7; 55,55</t>
+          <t>49,01; 55,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,09; 64,02</t>
+          <t>59,42; 64,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>64,27; 69,51</t>
+          <t>64,43; 69,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>59,8; 65,31</t>
+          <t>59,98; 65,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,63; 49,98</t>
+          <t>42,73; 49,94</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>46,4; 49,94</t>
+          <t>46,43; 50,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,92; 57,3</t>
+          <t>53,86; 57,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>50,65; 54,11</t>
+          <t>50,62; 54,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,45; 41,33</t>
+          <t>29,46; 41,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>61,91; 65,48</t>
+          <t>62,21; 65,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,55; 70,81</t>
+          <t>67,73; 70,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,98; 65,3</t>
+          <t>61,91; 65,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,45; 58,42</t>
+          <t>44,35; 58,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>54,91; 57,35</t>
+          <t>54,88; 57,32</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>61,28; 63,63</t>
+          <t>61,32; 63,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>56,91; 59,45</t>
+          <t>56,91; 59,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,11; 48,78</t>
+          <t>38,76; 48,0</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>213709</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>222711</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>197252</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>191435</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>157075</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>168490</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>182034</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>175364</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>370785</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>391201</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>379286</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>366799</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>191802; 235359</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>203237; 247046</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>177541; 219488</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>170001; 215048</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>141029; 176513</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>149241; 185908</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>163827; 201646</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>156945; 192883</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>342615; 400174</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>358096; 419060</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>350513; 409503</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>339687; 394739</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>174121</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>225402</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>186258</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>159072</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>206170</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>211358</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>190742</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>139461</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>380291</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>436760</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>377000</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>298533</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>154016; 191990</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>199372; 245396</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>167513; 205787</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>136801; 179251</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>186404; 224728</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>192503; 231109</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>170736; 209356</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>123958; 154911</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>353290; 408363</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>404832; 466164</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>349031; 403236</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>273675; 323773</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>264012</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>371279</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>306172</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>172241</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>104191</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>184458</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>110323</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>84850</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>368203</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>555737</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>416494</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>257092</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>240613; 286402</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>343711; 395104</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>283037; 329155</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>61613; 279876</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>91260; 115443</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>169207; 198649</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>97436; 121321</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>74293; 95440</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>340254; 394837</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>525739; 585711</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>390029; 442497</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>106677; 372205</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1047</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>656260</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>680657</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>631564</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>455146</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>444700</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>500114</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>466908</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>537496</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1100961</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1180772</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1098472</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>992642</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>621357; 690996</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>645561; 712902</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>596325; 666369</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>420541; 491085</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>416748; 468604</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>473131; 525345</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>438713; 494556</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>409252; 747461</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1061191; 1145218</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1133020; 1224203</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1049466; 1138850</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>861433; 1271343</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>185278</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>300854</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>351166</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>232177</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>371009</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>571285</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>541505</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>405600</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>556288</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>872139</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>892671</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>637777</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>167009; 204436</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>277750; 321897</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>327506; 377192</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>211359; 257141</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>348514; 395389</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>546242; 595330</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>518830; 564926</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>290456; 458798</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>524890; 586371</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>834944; 906852</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>855515; 926422</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>528375; 693161</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>81559</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>102133</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>100221</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>65180</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>873900</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>819897</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>755958</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>398207</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>955459</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>922030</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>856179</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>463386</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>66609; 96195</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>87125; 117901</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>86071; 116931</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>43087; 90578</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>841811; 905163</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>785501; 846563</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>723755; 784376</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>373170; 424200</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>919220; 993202</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>886750; 961567</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>821220; 894521</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>428121; 500340</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2267</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2057</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2648</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3763</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1574940</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1903036</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1772634</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1275250</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2157045</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2455602</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2247470</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1740979</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3731985</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4358638</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4020104</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3016229</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1518293; 1637052</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1842873; 1959961</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1713854; 1833621</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>994699; 1394556</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2101418; 2213359</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2404377; 2508480</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2186543; 2306008</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1586693; 2101036</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3648345; 3810487</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4275508; 4437010</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3936666; 4103094</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2695422; 3337636</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
